--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,14 +864,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2892-2026</t>
+          <t>A 11348-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>46037</v>
+        <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,17 +884,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -918,140 +918,140 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Gulsparv
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11348-2022 artfynd.xlsx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11348-2022 karta.png", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11348-2022 FSC-klagomål.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11348-2022 FSC-klagomål mail.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11348-2022 tillsynsbegäran.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11348-2022 tillsynsbegäran mail.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 11348-2022 prioriterade fågelarter.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 2892-2026</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>46037</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NYKVARN</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Tallticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2892-2026 artfynd.xlsx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2892-2026 karta.png", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2892-2026 FSC-klagomål.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2892-2026 FSC-klagomål mail.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2892-2026 tillsynsbegäran.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2892-2026 tillsynsbegäran mail.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 2892-2026 prioriterade fågelarter.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 11348-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44630.39990740741</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NYKVARN</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11348-2022 artfynd.xlsx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11348-2022 karta.png", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11348-2022 FSC-klagomål.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11348-2022 FSC-klagomål mail.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11348-2022 tillsynsbegäran.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11348-2022 tillsynsbegäran mail.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 11348-2022 prioriterade fågelarter.docx", "A 11348-2022")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2423-2026</t>
+          <t>A 9714-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>46034</v>
+        <v>44617</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,19 +1064,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>11.8</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1088,59 +1088,55 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 11388-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44630</v>
+        <v>45372.44967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1153,17 +1149,17 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1177,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1187,45 +1183,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 11388-2024</t>
+          <t>A 2423-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45372.44967592593</v>
+        <v>46034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1238,19 +1234,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>11.8</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1265,52 +1261,56 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 9714-2022</t>
+          <t>A 57389-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44617</v>
+        <v>45629.68615740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1323,17 +1323,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1357,45 +1357,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57389-2024</t>
+          <t>A 37597-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45629.68615740741</v>
+        <v>45541.47459490741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,16 +1408,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1442,31 +1442,35 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Röd glada</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
         <v/>
       </c>
     </row>
@@ -1480,7 +1484,7 @@
         <v>44610</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,14 +1562,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 37597-2024</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45541.47459490741</v>
+        <v>44630</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,13 +1582,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1612,35 +1616,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Röd glada</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>45791</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2545,14 +2545,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 38535-2025</t>
+          <t>A 22531-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45884.41943287037</v>
+        <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,8 +2564,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>10.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2602,14 +2607,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22531-2022</t>
+          <t>A 52878-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44713</v>
+        <v>44872</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,13 +2626,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>10.1</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2664,14 +2664,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2683,8 +2683,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2721,14 +2726,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45050</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2740,13 +2745,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>44462</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2840,14 +2840,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 38535-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45084</v>
+        <v>45884.41943287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2897,14 +2897,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2916,13 +2916,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>11.3</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2959,14 +2954,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44834</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2978,13 +2973,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3021,14 +3011,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45233</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3040,13 +3030,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>8.4</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3083,14 +3068,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>45229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3102,8 +3087,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3140,14 +3130,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44875</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3159,13 +3149,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>10.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3202,14 +3187,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44974.389375</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3222,7 +3207,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3259,14 +3244,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,8 +3263,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3316,14 +3306,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>44332</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3336,7 +3326,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3373,14 +3363,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>45084</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,13 +3382,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3435,14 +3420,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45167</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,8 +3439,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3492,14 +3482,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,8 +3501,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>10.6</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3549,14 +3544,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,13 +3563,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>10.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3611,14 +3601,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44540</v>
+        <v>44834</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,8 +3620,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>6.7</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3668,14 +3663,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3689,11 +3684,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>11.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3730,14 +3725,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45275</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3749,13 +3744,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3792,14 +3782,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45229</v>
+        <v>44316</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3811,13 +3801,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3854,14 +3839,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3873,8 +3858,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3911,14 +3901,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45235</v>
+        <v>45173</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3930,13 +3920,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3973,14 +3958,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3992,13 +3977,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4035,14 +4015,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>44974.389375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4054,13 +4034,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4097,14 +4072,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45044</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,13 +4091,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4159,14 +4129,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44713</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4178,13 +4148,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4221,14 +4186,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45275</v>
+        <v>45233</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4211,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4283,14 +4248,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44602</v>
+        <v>45235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4273,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4352,7 +4317,7 @@
         <v>45756.64081018518</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4402,14 +4367,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 56639-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45274</v>
+        <v>45243.72300925926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4427,7 +4392,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4464,14 +4429,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45173</v>
+        <v>45274</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4483,8 +4448,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4521,14 +4491,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45054</v>
+        <v>45050</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4540,8 +4510,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4578,14 +4553,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56639-2023</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45243.72300925926</v>
+        <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4599,11 +4574,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4647,7 +4622,7 @@
         <v>45215.46996527778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4697,14 +4672,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44730</v>
+        <v>45275</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4716,8 +4691,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4754,14 +4734,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44602</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4773,13 +4753,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4816,14 +4791,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 52878-2022</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44872</v>
+        <v>44730</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4836,7 +4811,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4873,14 +4848,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>44540</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4893,7 +4868,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4930,14 +4905,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4950,7 +4925,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4987,14 +4962,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>44713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,8 +4981,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>8.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5044,14 +5024,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44316</v>
+        <v>45167</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5064,7 +5044,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>9.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5101,14 +5081,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44332</v>
+        <v>44602</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,8 +5100,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5158,14 +5143,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,13 +5162,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>7.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5220,14 +5200,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5240,7 +5220,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5277,14 +5257,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5282,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5339,14 +5319,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>44602</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5358,8 +5338,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5396,14 +5381,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45792</v>
+        <v>45275</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5417,11 +5402,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5458,14 +5443,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5468,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5520,14 +5505,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5539,8 +5524,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5577,14 +5567,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5597,7 +5587,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5634,14 +5624,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5653,8 +5643,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5691,14 +5686,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>45792</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5710,8 +5705,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>10.4</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44617</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>45372.44967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>46034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45629.68615740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45541.47459490741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>44610</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44630</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45791</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44872</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44841.58752314815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45309.63112268518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44462</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45884.41943287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>45810.56418981482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>45810.55623842592</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45426.68278935185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45819.59659722223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>45819.60226851852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44602.69712962963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44332</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45084</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121.43032407408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44910.59086805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45874.65056712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44834</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44438.69939814815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44630.5968287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44316</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>45169.38591435185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45173</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44725.79453703704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44974.389375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>45989.38784722222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>45989.40099537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45233</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>45756.64081018518</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45243.72300925926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45274</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>45050</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45215.46996527778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>45275</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45215.48474537037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44730</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44540</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44973.6502662037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45167</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44602</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>45229.63960648148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>45607.48734953703</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>44602</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>45275</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>45761.7321875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>45309.64600694444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>45791.57525462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>45792</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44617</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>45372.44967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>46034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45629.68615740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45541.47459490741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>44610</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44630</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45791</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44872</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44841.58752314815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45309.63112268518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44462</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45884.41943287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>45810.56418981482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>45810.55623842592</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45426.68278935185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45819.59659722223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>45819.60226851852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44602.69712962963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44332</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45084</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121.43032407408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44910.59086805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45874.65056712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44834</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44438.69939814815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44630.5968287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44316</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>45169.38591435185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45173</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44725.79453703704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44974.389375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>45989.38784722222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>45989.40099537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45233</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>45756.64081018518</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45243.72300925926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45274</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>45050</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45215.46996527778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>45275</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45215.48474537037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44730</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44540</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44973.6502662037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45167</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44602</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>45229.63960648148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>45607.48734953703</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>44602</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>45275</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>45761.7321875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>45309.64600694444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>45791.57525462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>45792</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,14 +864,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 11348-2022</t>
+          <t>A 2892-2026</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44630.39990740741</v>
+        <v>46037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,17 +884,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -918,140 +918,140 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2892-2026 artfynd.xlsx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2892-2026 karta.png", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2892-2026 FSC-klagomål.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2892-2026 FSC-klagomål mail.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2892-2026 tillsynsbegäran.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2892-2026 tillsynsbegäran mail.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 2892-2026 prioriterade fågelarter.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 11348-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44630.39990740741</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NYKVARN</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Gulsparv
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11348-2022 artfynd.xlsx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11348-2022 karta.png", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11348-2022 FSC-klagomål.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11348-2022 FSC-klagomål mail.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11348-2022 tillsynsbegäran.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11348-2022 tillsynsbegäran mail.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 11348-2022 prioriterade fågelarter.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 2892-2026</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46037</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NYKVARN</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2892-2026 artfynd.xlsx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2892-2026 karta.png", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2892-2026 FSC-klagomål.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2892-2026 FSC-klagomål mail.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2892-2026 tillsynsbegäran.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2892-2026 tillsynsbegäran mail.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 2892-2026 prioriterade fågelarter.docx", "A 2892-2026")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 9714-2022</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44617</v>
+        <v>44630</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
         <v>45372.44967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>46034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,14 +1303,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 57389-2024</t>
+          <t>A 9714-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45629.68615740741</v>
+        <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1357,45 +1357,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 37597-2024</t>
+          <t>A 57389-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45541.47459490741</v>
+        <v>45629.68615740741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,17 +1408,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1442,35 +1442,31 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Röd glada</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
     </row>
@@ -1484,7 +1480,7 @@
         <v>44610</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,14 +1558,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 37597-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44630</v>
+        <v>45541.47459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1582,13 +1578,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1616,31 +1612,35 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Röd glada</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
         <v/>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>45791</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2488,14 +2488,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11996-2022</t>
+          <t>A 22531-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44635</v>
+        <v>44713</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,8 +2507,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>6.4</v>
+        <v>10.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2545,14 +2550,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22531-2022</t>
+          <t>A 11996-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44713</v>
+        <v>44635</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,13 +2569,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>10.1</v>
+        <v>6.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2607,14 +2607,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52878-2022</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44872</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2664,14 +2664,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2726,14 +2726,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>44834</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2745,8 +2745,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2783,14 +2788,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44462</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2803,7 +2808,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2840,14 +2845,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 38535-2025</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45884.41943287037</v>
+        <v>44875</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2859,8 +2864,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2897,14 +2907,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>44974.389375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2917,7 +2927,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2954,14 +2964,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2973,8 +2983,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3011,14 +3026,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3030,8 +3045,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3068,14 +3088,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45229</v>
+        <v>45167</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3087,13 +3107,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3130,14 +3145,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>44540</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3165,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>10.4</v>
+        <v>6.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3187,14 +3202,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3206,8 +3221,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3244,14 +3264,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3263,13 +3283,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3306,14 +3321,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44332</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3341,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>10.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3363,14 +3378,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 38535-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45084</v>
+        <v>45884.41943287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3398,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3420,14 +3435,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>45229</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3441,11 +3456,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3482,14 +3497,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3501,13 +3516,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3544,14 +3554,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>45235</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3563,8 +3573,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>10.6</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3601,14 +3616,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44834</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,11 +3637,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3663,14 +3678,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>45044</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3684,11 +3699,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>11.3</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3725,14 +3740,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>44713</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3744,8 +3759,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>8.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3782,14 +3802,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44316</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3802,7 +3822,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>9.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3839,14 +3859,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>44462</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,13 +3878,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3901,14 +3916,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45173</v>
+        <v>45084</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3936,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3958,14 +3973,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3977,8 +3992,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>11.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4015,14 +4035,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44974.389375</v>
+        <v>45233</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4034,8 +4054,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>8.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4072,14 +4097,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>45275</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4091,8 +4116,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4129,14 +4159,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4148,8 +4178,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4186,14 +4221,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45233</v>
+        <v>45275</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4211,7 +4246,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4248,14 +4283,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45235</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4267,13 +4302,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4310,14 +4340,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4330,7 +4360,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4367,14 +4397,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56639-2023</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45243.72300925926</v>
+        <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4422,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4429,14 +4459,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45274</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4448,13 +4478,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4491,14 +4516,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45050</v>
+        <v>45274</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,11 +4537,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4553,14 +4578,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45044</v>
+        <v>45173</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,13 +4597,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4615,14 +4635,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4635,7 +4655,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4672,14 +4692,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 56639-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45275</v>
+        <v>45243.72300925926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4697,7 +4717,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4734,14 +4754,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4754,7 +4774,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4798,7 +4818,7 @@
         <v>44730</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4848,14 +4868,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44540</v>
+        <v>44602</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4867,8 +4887,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4905,14 +4930,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 52878-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>44872</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4925,7 +4950,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4962,14 +4987,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44713</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4981,13 +5006,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>8.4</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5024,14 +5044,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45167</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5044,7 +5064,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5081,14 +5101,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44602</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5100,13 +5120,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>5.1</v>
+        <v>0.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5143,14 +5158,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45054</v>
+        <v>44316</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5178,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5200,14 +5215,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>44332</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5235,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5257,14 +5272,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5282,7 +5297,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5319,14 +5334,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44602</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5338,13 +5353,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5381,14 +5391,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45275</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5402,11 +5412,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5443,14 +5453,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,13 +5472,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5505,14 +5510,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44875</v>
+        <v>45792</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,7 +5531,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -5567,14 +5572,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5586,8 +5591,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5624,14 +5634,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5641,11 +5651,6 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>NYKVARN</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -5686,14 +5691,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45792</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5705,13 +5710,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,14 +864,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2892-2026</t>
+          <t>A 11348-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>46037</v>
+        <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,17 +884,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -918,140 +918,140 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Gulsparv
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11348-2022 artfynd.xlsx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11348-2022 karta.png", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11348-2022 FSC-klagomål.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11348-2022 FSC-klagomål mail.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11348-2022 tillsynsbegäran.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11348-2022 tillsynsbegäran mail.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 11348-2022 prioriterade fågelarter.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 2892-2026</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>46037</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NYKVARN</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Tallticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2892-2026 artfynd.xlsx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2892-2026 karta.png", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2892-2026 FSC-klagomål.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2892-2026 FSC-klagomål mail.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2892-2026 tillsynsbegäran.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2892-2026 tillsynsbegäran mail.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 2892-2026 prioriterade fågelarter.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 11348-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44630.39990740741</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NYKVARN</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11348-2022 artfynd.xlsx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11348-2022 karta.png", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11348-2022 FSC-klagomål.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11348-2022 FSC-klagomål mail.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11348-2022 tillsynsbegäran.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11348-2022 tillsynsbegäran mail.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 11348-2022 prioriterade fågelarter.docx", "A 11348-2022")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 9714-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44630</v>
+        <v>44617</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,45 +1098,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 11388-2024</t>
+          <t>A 23279-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45372.44967592593</v>
+        <v>45791</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1148,17 +1148,22 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1173,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1183,45 +1188,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 2423-2026</t>
+          <t>A 11388-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46034</v>
+        <v>45372.44967592593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1234,19 +1239,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11.8</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1261,56 +1266,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 9714-2022</t>
+          <t>A 2423-2026</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44617</v>
+        <v>46034</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1323,20 +1324,20 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>11.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1347,41 +1348,45 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
     </row>
@@ -1395,7 +1400,7 @@
         <v>45629.68615740741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,14 +1478,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 8285-2022</t>
+          <t>A 37597-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44610</v>
+        <v>45541.47459490741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1498,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1527,45 +1532,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Röd glada</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 37597-2024</t>
+          <t>A 8285-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45541.47459490741</v>
+        <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1587,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1612,49 +1621,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Röd glada</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23279-2025</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45791</v>
+        <v>44630</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,19 +1671,14 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,31 +1706,31 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2488,14 +2488,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 22531-2022</t>
+          <t>A 11996-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44713</v>
+        <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,13 +2507,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>10.1</v>
+        <v>6.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2550,14 +2545,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 11996-2022</t>
+          <t>A 22531-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44635</v>
+        <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2569,8 +2564,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>6.4</v>
+        <v>10.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2607,14 +2607,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 52878-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>44872</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2664,14 +2664,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 38535-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45050</v>
+        <v>45884.41943287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2683,13 +2683,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2726,14 +2721,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44834</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2747,11 +2742,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2788,14 +2783,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>44875</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2807,8 +2802,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2845,14 +2845,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44875</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2866,11 +2866,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2907,14 +2907,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44974.389375</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2964,14 +2964,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,11 +2981,6 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>NYKVARN</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3026,14 +3021,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3047,11 +3042,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3088,14 +3083,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45167</v>
+        <v>45792</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,8 +3102,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3145,14 +3145,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44540</v>
+        <v>44462</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3202,14 +3202,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,13 +3221,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3264,14 +3259,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3279,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3321,14 +3316,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>45229</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,8 +3335,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>10.4</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3378,14 +3378,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38535-2025</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45884.41943287037</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3435,14 +3435,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45229</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,13 +3454,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3497,14 +3492,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3516,8 +3511,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3554,14 +3554,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45235</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3573,13 +3573,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>10.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3616,14 +3611,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>44332</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3635,13 +3630,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3678,14 +3668,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45044</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3697,13 +3687,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3740,14 +3725,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44713</v>
+        <v>45084</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3759,13 +3744,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>8.4</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3802,14 +3782,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,8 +3801,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>10.6</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3859,14 +3844,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44462</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,8 +3863,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3916,14 +3906,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45084</v>
+        <v>44834</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,8 +3925,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3980,7 +3975,7 @@
         <v>44438.69939814815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4035,14 +4030,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45233</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4054,13 +4049,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>8.4</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4097,14 +4087,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45275</v>
+        <v>44316</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,13 +4106,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4159,14 +4144,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4184,7 +4169,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4221,14 +4206,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45275</v>
+        <v>45173</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4240,13 +4225,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4283,14 +4263,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4283,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4340,14 +4320,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>44974.389375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4340,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4397,14 +4377,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44602</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4416,13 +4396,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4459,14 +4434,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4454,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4516,14 +4491,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45274</v>
+        <v>45233</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4541,7 +4516,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4578,14 +4553,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45173</v>
+        <v>45235</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4597,8 +4572,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4635,14 +4615,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45054</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4635,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4699,7 +4679,7 @@
         <v>45243.72300925926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4754,14 +4734,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>45274</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4773,8 +4753,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4811,14 +4796,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44730</v>
+        <v>45050</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4830,8 +4815,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4868,14 +4858,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44602</v>
+        <v>45044</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4889,11 +4879,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4930,14 +4920,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 52878-2022</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44872</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4950,7 +4940,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4987,14 +4977,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>45275</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,8 +4996,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5044,14 +5039,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5064,7 +5059,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5101,14 +5096,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>44730</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5116,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5158,14 +5153,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44316</v>
+        <v>44540</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5178,7 +5173,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>9.699999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5215,14 +5210,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44332</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5235,7 +5230,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5272,14 +5267,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>44713</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5293,11 +5288,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>8.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5334,14 +5329,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>45167</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5391,14 +5386,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>44602</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,11 +5407,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5453,14 +5448,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>45054</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5468,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5510,14 +5505,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45792</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5529,13 +5524,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5572,14 +5562,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5597,7 +5587,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5634,14 +5624,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5653,8 +5643,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5691,14 +5686,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>45275</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5710,8 +5705,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,14 +1044,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 9714-2022</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44617</v>
+        <v>44630</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,45 +1098,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 23279-2025</t>
+          <t>A 11388-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45791</v>
+        <v>45372.44967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1148,23 +1148,18 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1178,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1188,45 +1183,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 11388-2024</t>
+          <t>A 8285-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45372.44967592593</v>
+        <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1239,16 +1234,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1273,45 +1268,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2423-2026</t>
+          <t>A 9714-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46034</v>
+        <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1324,19 +1319,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.8</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1348,45 +1343,41 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
@@ -1400,7 +1391,7 @@
         <v>45629.68615740741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1476,7 @@
         <v>45541.47459490741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,14 +1558,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8285-2022</t>
+          <t>A 23279-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44610</v>
+        <v>45791</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1586,8 +1577,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1625,41 +1621,41 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 2423-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44630</v>
+        <v>46034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1672,20 +1668,20 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>11.8</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
@@ -1696,41 +1692,45 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1970,14 +1970,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 19608-2022</t>
+          <t>A 73212-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44693.96278935186</v>
+        <v>44550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1989,8 +1989,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2027,14 +2032,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24656-2022</t>
+          <t>A 24281-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44726</v>
+        <v>44725.78381944444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2052,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2084,14 +2089,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 21913-2021</t>
+          <t>A 19608-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44322.75940972222</v>
+        <v>44693.96278935186</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2109,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2141,14 +2146,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 44531-2022</t>
+          <t>A 24656-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44840</v>
+        <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2166,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2198,14 +2203,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 43922-2021</t>
+          <t>A 21913-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44434</v>
+        <v>44322.75940972222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2223,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2255,14 +2260,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 73212-2021</t>
+          <t>A 8295-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44550</v>
+        <v>44610</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2274,13 +2279,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2317,14 +2317,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 24281-2022</t>
+          <t>A 67220-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44725.78381944444</v>
+        <v>44523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2374,14 +2374,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8295-2022</t>
+          <t>A 11996-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44610</v>
+        <v>44635</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2431,14 +2431,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 67220-2021</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44523</v>
+        <v>45084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2488,14 +2488,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11996-2022</t>
+          <t>A 22531-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44635</v>
+        <v>44713</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,8 +2507,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>6.4</v>
+        <v>10.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2545,14 +2550,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22531-2022</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44713</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2570,7 +2575,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>10.1</v>
+        <v>11.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2607,14 +2612,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52878-2022</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44872</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2627,7 +2632,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2664,14 +2669,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 38535-2025</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45884.41943287037</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2683,8 +2688,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2721,14 +2731,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>45050</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2746,7 +2756,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2783,14 +2793,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44875</v>
+        <v>45233</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2804,11 +2814,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>8.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2845,14 +2855,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>45167</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2864,13 +2874,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2907,14 +2912,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2926,8 +2931,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2964,14 +2974,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 44531-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>44840</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2994,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3021,14 +3031,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>44834</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3042,11 +3052,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3083,14 +3093,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45792</v>
+        <v>44540</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3102,13 +3112,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3145,14 +3150,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44462</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,8 +3169,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3209,7 +3219,7 @@
         <v>45426.68278935185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3259,14 +3269,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>44875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,8 +3288,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>10.6</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3316,14 +3331,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 43922-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45229</v>
+        <v>44434</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,13 +3350,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3378,14 +3388,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>45275</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,8 +3407,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3435,14 +3450,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,8 +3469,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3492,14 +3512,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>44974.389375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,13 +3531,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3554,14 +3569,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3589,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>10.4</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3611,14 +3626,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44332</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3646,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3668,14 +3683,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>45229</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,8 +3702,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3725,14 +3745,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45084</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3745,7 +3765,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3782,14 +3802,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>45275</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3803,11 +3823,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3844,14 +3864,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>45235</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3865,11 +3885,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3906,14 +3926,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44834</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3925,13 +3945,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3968,14 +3983,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3987,13 +4002,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>11.3</v>
+        <v>10.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4030,14 +4040,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4049,8 +4059,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4087,14 +4102,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44316</v>
+        <v>44602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4106,8 +4121,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>9.699999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4144,14 +4164,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>44602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4165,11 +4185,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4206,14 +4226,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45173</v>
+        <v>45044</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4225,8 +4245,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4263,14 +4288,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>44713</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4282,8 +4307,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>8.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4320,14 +4350,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 52878-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44974.389375</v>
+        <v>44872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4340,7 +4370,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4377,14 +4407,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4397,7 +4427,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4434,14 +4464,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4454,7 +4484,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4491,14 +4521,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45233</v>
+        <v>45274</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4516,7 +4546,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.4</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4553,14 +4583,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45235</v>
+        <v>45173</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,13 +4602,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4615,14 +4640,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4635,7 +4660,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4679,7 +4704,7 @@
         <v>45243.72300925926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4734,14 +4759,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45274</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4753,13 +4778,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4796,14 +4816,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45050</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4815,13 +4835,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4858,14 +4873,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45044</v>
+        <v>44462</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4877,13 +4892,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4920,14 +4930,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4950,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4977,14 +4987,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 38535-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45275</v>
+        <v>45884.41943287037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4996,13 +5006,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5039,14 +5044,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5064,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5096,14 +5101,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44730</v>
+        <v>44316</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5116,7 +5121,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5153,14 +5158,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44540</v>
+        <v>44332</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5173,7 +5178,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5210,14 +5215,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5229,8 +5234,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5267,14 +5277,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44713</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5286,13 +5296,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>8.4</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5329,14 +5334,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45167</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,8 +5353,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5386,14 +5396,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44602</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,13 +5415,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>5.1</v>
+        <v>10.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5448,14 +5453,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45054</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5468,7 +5473,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5505,14 +5510,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>45792</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5524,8 +5529,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5562,14 +5572,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5597,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5624,14 +5634,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44602</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5643,13 +5653,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5686,14 +5691,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45275</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5705,13 +5710,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,14 +1044,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 9714-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44630</v>
+        <v>44617</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
         <v>45372.44967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,14 +1214,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 8285-2022</t>
+          <t>A 57389-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44610</v>
+        <v>45629.68615740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1237,14 +1237,14 @@
         <v>5</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1268,45 +1268,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 9714-2022</t>
+          <t>A 2423-2026</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44617</v>
+        <v>46034</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1319,20 +1319,20 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>11.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1343,55 +1343,59 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57389-2024</t>
+          <t>A 37597-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45629.68615740741</v>
+        <v>45541.47459490741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,16 +1408,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1428,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1438,45 +1442,49 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Röd glada</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 37597-2024</t>
+          <t>A 8285-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45541.47459490741</v>
+        <v>44610</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1497,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1523,49 +1531,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Röd glada</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23279-2025</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45791</v>
+        <v>44630</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1577,19 +1581,14 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1617,45 +1616,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 2423-2026</t>
+          <t>A 23279-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46034</v>
+        <v>45791</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,8 +1666,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>11.8</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1680,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1692,45 +1696,41 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1970,14 +1970,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 73212-2021</t>
+          <t>A 19608-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44550</v>
+        <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1989,13 +1989,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2032,14 +2027,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24281-2022</t>
+          <t>A 24656-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44725.78381944444</v>
+        <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2052,7 +2047,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2089,14 +2084,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19608-2022</t>
+          <t>A 21913-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44693.96278935186</v>
+        <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2109,7 +2104,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2146,14 +2141,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24656-2022</t>
+          <t>A 44531-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44726</v>
+        <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2166,7 +2161,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2203,14 +2198,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21913-2021</t>
+          <t>A 43922-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44322.75940972222</v>
+        <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2223,7 +2218,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2260,14 +2255,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 8295-2022</t>
+          <t>A 73212-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44610</v>
+        <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,8 +2274,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2317,14 +2317,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 67220-2021</t>
+          <t>A 24281-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44523</v>
+        <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2374,14 +2374,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 11996-2022</t>
+          <t>A 8295-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44635</v>
+        <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2431,14 +2431,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 67220-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45084</v>
+        <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2488,14 +2488,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 22531-2022</t>
+          <t>A 11996-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44713</v>
+        <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,13 +2507,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>10.1</v>
+        <v>6.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2550,14 +2545,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 22531-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2575,7 +2570,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>11.3</v>
+        <v>10.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2612,14 +2607,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 52878-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>44872</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2632,7 +2627,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2669,14 +2664,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2694,7 +2689,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2731,14 +2726,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45050</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2750,13 +2745,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2793,14 +2783,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 38535-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45233</v>
+        <v>45884.41943287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2812,13 +2802,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2855,14 +2840,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45167</v>
+        <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2875,7 +2860,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2912,14 +2897,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2931,13 +2916,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2974,14 +2954,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 44531-2022</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44840</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2994,7 +2974,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3031,14 +3011,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44834</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,13 +3030,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3093,14 +3068,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44540</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3088,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.7</v>
+        <v>10.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3150,14 +3125,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>45229</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3150,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3212,14 +3187,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3207,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3269,14 +3244,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44875</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3290,11 +3265,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3331,14 +3306,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 43922-2021</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44434</v>
+        <v>44332</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3351,7 +3326,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3388,14 +3363,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45275</v>
+        <v>45084</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3407,13 +3382,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3457,7 +3427,7 @@
         <v>45121.43032407408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3512,14 +3482,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44974.389375</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3531,8 +3501,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3569,14 +3544,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>44834</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3588,8 +3563,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3626,14 +3606,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3645,8 +3625,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>11.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3683,14 +3668,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45229</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3702,13 +3687,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3745,14 +3725,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3745,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>10.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3802,14 +3782,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45275</v>
+        <v>44316</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,13 +3801,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3864,14 +3839,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45235</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3885,11 +3860,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3926,14 +3901,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>45173</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3921,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3983,14 +3958,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +3978,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>10.4</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4040,14 +4015,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>44974.389375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,13 +4034,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4102,14 +4072,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44602</v>
+        <v>45233</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4127,7 +4097,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>8.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4164,14 +4134,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44602</v>
+        <v>45235</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4159,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4226,14 +4196,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45044</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4245,13 +4215,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4288,14 +4253,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 56639-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44713</v>
+        <v>45243.72300925926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4309,11 +4274,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8.4</v>
+        <v>2.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4350,14 +4315,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 52878-2022</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44872</v>
+        <v>45274</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4369,8 +4334,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4407,14 +4377,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4427,7 +4397,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4464,14 +4434,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4484,7 +4454,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4521,14 +4491,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45274</v>
+        <v>45050</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4542,11 +4512,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4583,14 +4553,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45173</v>
+        <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4602,8 +4572,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4640,14 +4615,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45054</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4660,7 +4635,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4697,14 +4672,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 56639-2023</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45243.72300925926</v>
+        <v>45275</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4722,7 +4697,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4759,14 +4734,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4779,7 +4754,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4816,14 +4791,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>44730</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4836,7 +4811,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4873,14 +4848,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44462</v>
+        <v>44540</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4893,7 +4868,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4937,7 +4912,7 @@
         <v>44973.6502662037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,14 +4962,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38535-2025</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45884.41943287037</v>
+        <v>44713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,8 +4981,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5044,14 +5024,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44730</v>
+        <v>45167</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5064,7 +5044,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5101,14 +5081,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44316</v>
+        <v>44602</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,8 +5100,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>9.699999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5158,14 +5143,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44332</v>
+        <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5178,7 +5163,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5215,14 +5200,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,13 +5219,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5277,14 +5257,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,8 +5276,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5334,14 +5319,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>44602</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5355,11 +5340,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5396,14 +5381,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>45275</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5415,8 +5400,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>10.6</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5453,14 +5443,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5472,8 +5462,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5510,14 +5505,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45792</v>
+        <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5531,7 +5526,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -5572,14 +5567,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5591,13 +5586,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5634,14 +5624,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5653,8 +5643,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5691,14 +5686,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>45792</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5710,8 +5705,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44617</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,14 +1129,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 11388-2024</t>
+          <t>A 23279-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45372.44967592593</v>
+        <v>45791</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1148,17 +1148,22 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1173,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1183,45 +1188,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 57389-2024</t>
+          <t>A 11388-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45629.68615740741</v>
+        <v>45372.44967592593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1234,7 +1239,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1272,27 +1277,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
     </row>
@@ -1306,7 +1311,7 @@
         <v>46034</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,14 +1393,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 37597-2024</t>
+          <t>A 57389-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45541.47459490741</v>
+        <v>45629.68615740741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,17 +1413,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1432,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1442,49 +1447,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Röd glada</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 8285-2022</t>
+          <t>A 37597-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44610</v>
+        <v>45541.47459490741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,7 +1498,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1531,45 +1532,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Röd glada</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 8285-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44630</v>
+        <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1582,13 +1587,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1616,45 +1621,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23279-2025</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45791</v>
+        <v>44630</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,19 +1671,14 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,31 +1706,31 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44872</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2664,14 +2664,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2726,14 +2726,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>45792</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2745,8 +2745,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2790,7 +2795,7 @@
         <v>45884.41943287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2840,14 +2845,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44462</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2859,8 +2864,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2897,14 +2907,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2917,7 +2927,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2954,14 +2964,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2974,7 +2984,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3011,14 +3021,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3031,7 +3041,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3068,14 +3078,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>44462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3088,7 +3098,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.4</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3125,14 +3135,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45229</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3144,13 +3154,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>10.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3194,7 +3199,7 @@
         <v>45819.60226851852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3244,14 +3249,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3263,13 +3268,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3306,14 +3306,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44332</v>
+        <v>45229</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3323,6 +3323,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>NYKVARN</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -3363,14 +3368,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45084</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3388,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>10.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3420,14 +3425,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3441,11 +3446,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3482,14 +3487,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>44332</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3501,13 +3506,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3544,14 +3544,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44834</v>
+        <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3563,13 +3563,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3606,14 +3601,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3627,11 +3622,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>11.3</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3668,14 +3663,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,8 +3682,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3725,14 +3725,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>44834</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3744,8 +3744,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>10.6</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3782,14 +3787,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44316</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3801,8 +3806,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>9.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3839,14 +3849,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,13 +3868,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3901,14 +3906,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45173</v>
+        <v>44316</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3926,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3958,14 +3963,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3983,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4015,14 +4020,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44974.389375</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4040,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4072,14 +4077,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45233</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4093,11 +4098,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4134,14 +4139,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45235</v>
+        <v>45173</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4153,13 +4158,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4196,14 +4196,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4253,14 +4253,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56639-2023</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45243.72300925926</v>
+        <v>44974.389375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4272,13 +4272,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4315,14 +4310,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45274</v>
+        <v>45233</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4340,7 +4335,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4377,14 +4372,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>45235</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4396,8 +4391,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4434,14 +4434,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4491,14 +4491,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 56639-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45050</v>
+        <v>45243.72300925926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,11 +4512,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4553,14 +4553,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45044</v>
+        <v>45274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,11 +4574,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4615,14 +4615,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>45050</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4634,8 +4634,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4672,14 +4677,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45275</v>
+        <v>45044</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4693,11 +4698,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4734,14 +4739,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4754,7 +4759,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4791,14 +4796,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44730</v>
+        <v>45275</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4810,8 +4815,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4848,14 +4858,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44540</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4868,7 +4878,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4905,14 +4915,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>44730</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4925,7 +4935,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4962,14 +4972,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44713</v>
+        <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4981,13 +4991,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5024,14 +5029,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45167</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5044,7 +5049,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5081,14 +5086,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44602</v>
+        <v>44713</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,11 +5107,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.1</v>
+        <v>8.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5143,14 +5148,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45054</v>
+        <v>45167</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5168,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5200,14 +5205,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>44602</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5219,8 +5224,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5257,14 +5267,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>45054</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5276,13 +5286,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5319,14 +5324,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44602</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5338,13 +5343,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5381,14 +5381,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45275</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5402,11 +5402,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5443,14 +5443,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>44602</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5464,11 +5464,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5505,14 +5505,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44875</v>
+        <v>45275</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,11 +5526,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5567,14 +5567,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5586,8 +5586,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5624,14 +5629,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>44875</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5645,11 +5650,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5686,14 +5691,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45792</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5705,13 +5710,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44617</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>45791</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>45372.44967592593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>46034</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45629.68615740741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45541.47459490741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44630</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1737,14 +1737,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 12578-2022</t>
+          <t>A 37967-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44638</v>
+        <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37967-2021</t>
+          <t>A 12578-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44403</v>
+        <v>44638</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44872</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2664,14 +2664,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2683,13 +2683,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2726,14 +2721,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45792</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2751,7 +2746,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2795,7 +2790,7 @@
         <v>45884.41943287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2845,14 +2840,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>45792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2865,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2907,14 +2902,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2926,8 +2921,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2964,14 +2964,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3021,14 +3021,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3078,14 +3078,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44462</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3135,14 +3135,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>44462</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>10.4</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3192,14 +3192,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.7</v>
+        <v>10.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3249,14 +3249,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3306,14 +3306,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45229</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3325,13 +3325,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>10.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3368,14 +3363,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3388,7 +3383,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>10.6</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3425,14 +3420,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>45229</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3446,11 +3441,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3487,14 +3482,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44332</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3506,8 +3501,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3544,14 +3544,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45084</v>
+        <v>44332</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3601,14 +3601,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3620,13 +3620,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3663,14 +3658,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3684,11 +3679,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3725,14 +3720,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44834</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3746,11 +3741,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3787,14 +3782,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3806,13 +3801,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>11.3</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3849,14 +3839,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3869,7 +3859,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3906,14 +3896,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44316</v>
+        <v>44834</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3925,8 +3915,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>9.699999999999999</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3963,14 +3958,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3982,8 +3977,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>11.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4020,14 +4020,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4077,14 +4077,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>44316</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4096,13 +4096,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4139,14 +4134,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45173</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4158,8 +4153,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4196,14 +4196,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>45173</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4253,14 +4253,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44974.389375</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4310,14 +4310,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45233</v>
+        <v>44974.389375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4329,13 +4329,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>8.4</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4372,14 +4367,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45235</v>
+        <v>45233</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4397,7 +4392,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>8.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4434,14 +4429,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>45235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4453,8 +4448,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4491,14 +4491,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56639-2023</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45243.72300925926</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4510,13 +4510,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4553,14 +4548,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 56639-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45274</v>
+        <v>45243.72300925926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4578,7 +4573,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4615,14 +4610,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45050</v>
+        <v>45274</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4636,11 +4631,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4677,14 +4672,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4698,11 +4693,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4739,14 +4734,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>45044</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4758,8 +4753,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45275</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4815,13 +4815,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4858,14 +4853,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>45275</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4877,8 +4872,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4915,14 +4915,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44730</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4972,14 +4972,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44540</v>
+        <v>44730</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5029,14 +5029,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>44540</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>6.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5086,14 +5086,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44713</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5105,13 +5105,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>8.4</v>
+        <v>0.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5148,14 +5143,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45167</v>
+        <v>44713</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5167,8 +5162,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>8.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5205,14 +5205,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44602</v>
+        <v>45167</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5224,13 +5224,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5267,14 +5262,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45054</v>
+        <v>44602</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5286,8 +5281,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5324,14 +5324,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>45054</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5381,14 +5381,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5400,13 +5400,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5443,14 +5438,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44602</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5464,11 +5459,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5505,14 +5500,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45275</v>
+        <v>44602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5525,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5567,14 +5562,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>45275</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5588,11 +5583,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5629,14 +5624,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44875</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5650,7 +5645,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -5691,14 +5686,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>44875</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5710,8 +5705,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,14 +864,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 11348-2022</t>
+          <t>A 2892-2026</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44630.39990740741</v>
+        <v>46037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,17 +884,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -918,140 +918,140 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2892-2026 artfynd.xlsx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2892-2026 karta.png", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2892-2026 FSC-klagomål.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2892-2026 FSC-klagomål mail.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2892-2026 tillsynsbegäran.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2892-2026 tillsynsbegäran mail.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 2892-2026 prioriterade fågelarter.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 11348-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44630.39990740741</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NYKVARN</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Gulsparv
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11348-2022 artfynd.xlsx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11348-2022 karta.png", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11348-2022 FSC-klagomål.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11348-2022 FSC-klagomål mail.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11348-2022 tillsynsbegäran.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11348-2022 tillsynsbegäran mail.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 11348-2022 prioriterade fågelarter.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 2892-2026</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46037</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NYKVARN</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2892-2026 artfynd.xlsx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2892-2026 karta.png", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2892-2026 FSC-klagomål.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2892-2026 FSC-klagomål mail.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2892-2026 tillsynsbegäran.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2892-2026 tillsynsbegäran mail.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 2892-2026 prioriterade fågelarter.docx", "A 2892-2026")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 9714-2022</t>
+          <t>A 23279-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44617</v>
+        <v>45791</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,16 +1061,21 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>NYKVARN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,45 +1103,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 23279-2025</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45791</v>
+        <v>44630</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1148,19 +1153,14 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1188,31 +1188,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>45372.44967592593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>46034</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57389-2024</t>
+          <t>A 9714-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45629.68615740741</v>
+        <v>44617</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,16 +1413,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1447,45 +1447,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 37597-2024</t>
+          <t>A 57389-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45541.47459490741</v>
+        <v>45629.68615740741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1498,17 +1498,17 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1532,35 +1532,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Röd glada</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
     </row>
@@ -1574,7 +1570,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,14 +1648,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 37597-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44630</v>
+        <v>45541.47459490741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1672,13 +1668,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,45 +1702,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Röd glada</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 37967-2021</t>
+          <t>A 12578-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44403</v>
+        <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 12578-2022</t>
+          <t>A 37967-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44638</v>
+        <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2607,14 +2607,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52878-2022</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44872</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2664,14 +2664,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,6 +2681,11 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>NYKVARN</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -2721,14 +2726,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2746,7 +2751,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2783,14 +2788,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 38535-2025</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45884.41943287037</v>
+        <v>44834</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2802,8 +2807,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2840,14 +2850,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 38535-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45792</v>
+        <v>45884.41943287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2859,13 +2869,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2902,14 +2907,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2921,13 +2926,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2964,14 +2964,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>44875</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2983,8 +2983,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3021,14 +3026,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3046,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3078,14 +3083,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>44974.389375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3103,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3135,14 +3140,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44462</v>
+        <v>45792</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3154,8 +3159,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3192,14 +3202,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3211,8 +3221,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>10.4</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3249,14 +3264,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3268,8 +3283,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3306,14 +3326,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>45167</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3346,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>10.6</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3363,14 +3383,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3382,8 +3402,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3420,14 +3445,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45229</v>
+        <v>44540</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3439,13 +3464,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3482,14 +3502,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3503,11 +3523,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3544,14 +3564,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44332</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3564,7 +3584,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3601,14 +3621,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45084</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3621,7 +3641,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3658,14 +3678,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3677,13 +3697,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>10.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3720,14 +3735,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,13 +3754,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3782,14 +3792,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3802,7 +3812,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>10.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3839,14 +3849,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>45229</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,8 +3868,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3896,14 +3911,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44834</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,13 +3930,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3958,14 +3968,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>45235</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3979,11 +3989,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>11.3</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4020,14 +4030,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4039,8 +4049,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4077,14 +4092,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44316</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4097,7 +4112,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>9.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4134,14 +4149,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4153,13 +4168,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4196,14 +4206,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45173</v>
+        <v>45044</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4215,8 +4225,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4253,14 +4268,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>44713</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4272,8 +4287,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>8.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4310,14 +4330,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44974.389375</v>
+        <v>44462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4330,7 +4350,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4367,14 +4387,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45233</v>
+        <v>45084</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4386,13 +4406,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>8.4</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4429,14 +4444,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45235</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,11 +4465,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>11.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4491,14 +4506,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>45233</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4510,8 +4525,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4548,14 +4568,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56639-2023</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45243.72300925926</v>
+        <v>45275</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4573,7 +4593,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4610,14 +4630,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45274</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,11 +4651,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4672,14 +4692,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45050</v>
+        <v>45275</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4693,11 +4713,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4734,14 +4754,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45044</v>
+        <v>44602</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4755,11 +4775,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4796,14 +4816,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4836,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4853,14 +4873,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45275</v>
+        <v>45274</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4898,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4915,14 +4935,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>45173</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4955,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4972,14 +4992,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44730</v>
+        <v>45054</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +5012,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5029,14 +5049,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 56639-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44540</v>
+        <v>45243.72300925926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5048,8 +5068,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>6.7</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5086,14 +5111,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5131,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5143,14 +5168,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44713</v>
+        <v>44730</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5162,13 +5187,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>8.4</v>
+        <v>3.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5205,14 +5225,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45167</v>
+        <v>44602</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5224,8 +5244,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5262,14 +5287,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 52878-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44602</v>
+        <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5281,13 +5306,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5324,14 +5344,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45054</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5344,7 +5364,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.2</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5381,14 +5401,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5401,7 +5421,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5438,14 +5458,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5457,13 +5477,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5500,14 +5515,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44602</v>
+        <v>44316</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,13 +5534,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5562,14 +5572,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45275</v>
+        <v>44332</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5581,13 +5591,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5624,14 +5629,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5649,7 +5654,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5686,14 +5691,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44875</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5705,13 +5710,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,14 +864,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2892-2026</t>
+          <t>A 11348-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>46037</v>
+        <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,17 +884,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -918,140 +918,140 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Gulsparv
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11348-2022 artfynd.xlsx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11348-2022 karta.png", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11348-2022 FSC-klagomål.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11348-2022 FSC-klagomål mail.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11348-2022 tillsynsbegäran.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11348-2022 tillsynsbegäran mail.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 11348-2022 prioriterade fågelarter.docx", "A 11348-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 2892-2026</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>46037</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NYKVARN</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Tallticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2892-2026 artfynd.xlsx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2892-2026 karta.png", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2892-2026 FSC-klagomål.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2892-2026 FSC-klagomål mail.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2892-2026 tillsynsbegäran.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2892-2026 tillsynsbegäran mail.docx", "A 2892-2026")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 2892-2026 prioriterade fågelarter.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 11348-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44630.39990740741</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NYKVARN</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11348-2022 artfynd.xlsx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11348-2022 karta.png", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11348-2022 FSC-klagomål.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11348-2022 FSC-klagomål mail.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11348-2022 tillsynsbegäran.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11348-2022 tillsynsbegäran mail.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 11348-2022 prioriterade fågelarter.docx", "A 11348-2022")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 23279-2025</t>
+          <t>A 9714-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45791</v>
+        <v>44617</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,21 +1061,16 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>NYKVARN</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0.5</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1103,45 +1098,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 11388-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44630</v>
+        <v>45372.44967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,17 +1149,17 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1178,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1188,45 +1183,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 11388-2024</t>
+          <t>A 2423-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45372.44967592593</v>
+        <v>46034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1239,19 +1234,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>11.8</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1266,52 +1261,56 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2423-2026</t>
+          <t>A 57389-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46034</v>
+        <v>45629.68615740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1324,19 +1323,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.8</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1351,56 +1350,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 9714-2022</t>
+          <t>A 37597-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44617</v>
+        <v>45541.47459490741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,13 +1408,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1447,45 +1442,49 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Röd glada</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 57389-2024</t>
+          <t>A 8285-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45629.68615740741</v>
+        <v>44610</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,13 +1500,13 @@
         <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1522,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1532,45 +1531,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8285-2022</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44610</v>
+        <v>44630</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1583,13 +1582,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1617,45 +1616,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 37597-2024</t>
+          <t>A 23279-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45541.47459490741</v>
+        <v>45791</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,8 +1666,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1702,35 +1706,31 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Röd glada</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2607,14 +2607,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 52878-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>44872</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2664,14 +2664,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45050</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2726,14 +2726,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2745,13 +2745,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2788,14 +2783,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44834</v>
+        <v>44462</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2807,13 +2802,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2850,14 +2840,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 38535-2025</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45884.41943287037</v>
+        <v>45229</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2869,8 +2859,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2907,14 +2902,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2922,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>10.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2964,14 +2959,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44875</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2983,13 +2978,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3026,14 +3016,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3046,7 +3036,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3083,14 +3073,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 38535-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44974.389375</v>
+        <v>45884.41943287037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3103,7 +3093,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3140,14 +3130,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45792</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3161,11 +3151,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3202,14 +3192,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>44332</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,13 +3211,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3264,14 +3249,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>45084</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,13 +3268,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3326,14 +3306,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45167</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3345,8 +3325,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3383,14 +3368,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3404,11 +3389,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3445,14 +3430,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44540</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3465,7 +3450,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6.7</v>
+        <v>10.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3502,14 +3487,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>44834</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3523,11 +3508,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3564,14 +3549,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3583,8 +3568,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>11.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3621,14 +3611,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3631,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3678,14 +3668,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>44316</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3698,7 +3688,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>10.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3735,14 +3725,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3754,8 +3744,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3792,14 +3787,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>45173</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3812,7 +3807,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>10.4</v>
+        <v>4.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3849,14 +3844,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45229</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3868,13 +3863,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3911,14 +3901,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>44974.389375</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3931,7 +3921,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3968,14 +3958,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45235</v>
+        <v>45233</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3983,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>8.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4030,14 +4020,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4049,13 +4039,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4092,14 +4077,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4112,7 +4097,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4149,14 +4134,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>45235</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4168,8 +4153,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4206,14 +4196,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45044</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4225,13 +4215,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4268,14 +4253,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 56639-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44713</v>
+        <v>45243.72300925926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,11 +4274,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8.4</v>
+        <v>2.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4330,14 +4315,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44462</v>
+        <v>45274</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4349,8 +4334,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4387,14 +4377,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45084</v>
+        <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4406,8 +4396,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4444,14 +4439,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>45044</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4465,11 +4460,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>11.3</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4506,14 +4501,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45233</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4525,13 +4520,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>8.4</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4575,7 +4565,7 @@
         <v>45275</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4630,14 +4620,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4649,13 +4639,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4692,14 +4677,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45275</v>
+        <v>44730</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4711,13 +4696,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4754,14 +4734,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44602</v>
+        <v>44540</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4773,13 +4753,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4816,14 +4791,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4836,7 +4811,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4873,14 +4848,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45274</v>
+        <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4894,11 +4869,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4935,14 +4910,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45173</v>
+        <v>45167</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4930,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4992,14 +4967,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45054</v>
+        <v>44602</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,8 +4986,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5049,14 +5029,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 56639-2023</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45243.72300925926</v>
+        <v>45054</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,13 +5048,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5111,14 +5086,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5131,7 +5106,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5168,14 +5143,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44730</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5187,8 +5162,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5232,7 +5212,7 @@
         <v>44602</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5287,14 +5267,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52878-2022</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44872</v>
+        <v>45275</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5306,8 +5286,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5344,14 +5329,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5363,8 +5348,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5401,14 +5391,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5420,8 +5410,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5458,14 +5453,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5478,7 +5473,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5515,14 +5510,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44316</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5534,8 +5529,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>9.699999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5572,14 +5572,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44332</v>
+        <v>45792</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5591,8 +5591,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5629,14 +5634,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5648,13 +5653,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5691,14 +5691,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44617</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>45372.44967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>46034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45629.68615740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45541.47459490741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>44610</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44630</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45791</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44872</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44841.58752314815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45309.63112268518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44462</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45229</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>45819.59659722223</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>45426.68278935185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>45819.60226851852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>45884.41943287037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44602.69712962963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>44332</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45084</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121.43032407408</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44910.59086805556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45874.65056712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44834</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44438.69939814815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>44630.5968287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>44316</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45169.38591435185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45173</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44725.79453703704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>44974.389375</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45233</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>45989.38784722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45989.40099537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45235</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>45756.64081018518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>45243.72300925926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45274</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45044</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45215.46996527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45275</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45215.48474537037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44730</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44540</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44973.6502662037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45167</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44602</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>45054</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>45229.63960648148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45607.48734953703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>44602</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>45275</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>45761.7321875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>45309.64600694444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45791.57525462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45792</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45810.56418981482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45810.55623842592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44617</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>45372.44967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>46034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45629.68615740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45541.47459490741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>44610</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44630</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45791</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44872</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44841.58752314815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45309.63112268518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44462</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45229</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>45819.59659722223</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>45426.68278935185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>45819.60226851852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>45884.41943287037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44602.69712962963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>44332</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45084</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121.43032407408</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44910.59086805556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45874.65056712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44834</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44438.69939814815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>44630.5968287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>44316</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45169.38591435185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45173</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44725.79453703704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>44974.389375</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45233</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>45989.38784722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45989.40099537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45235</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>45756.64081018518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>45243.72300925926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45274</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45044</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45215.46996527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45275</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45215.48474537037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44730</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44540</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44973.6502662037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45167</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44602</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>45054</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>45229.63960648148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45607.48734953703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>44602</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>45275</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>45761.7321875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>45309.64600694444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45791.57525462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45792</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45810.56418981482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45810.55623842592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,14 +1044,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 9714-2022</t>
+          <t>A 11388-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44617</v>
+        <v>45372.44967592593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,17 +1064,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1098,45 +1098,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 11388-2024</t>
+          <t>A 9714-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45372.44967592593</v>
+        <v>44617</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1183,45 +1183,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 2423-2026</t>
+          <t>A 57389-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46034</v>
+        <v>45629.68615740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1234,19 +1234,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11.8</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1261,56 +1261,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 57389-2024</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45629.68615740741</v>
+        <v>44630</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1323,16 +1319,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1357,45 +1353,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 37597-2024</t>
+          <t>A 8285-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45541.47459490741</v>
+        <v>44610</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,7 +1404,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1442,49 +1438,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Röd glada</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 8285-2022</t>
+          <t>A 37597-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44610</v>
+        <v>45541.47459490741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,7 +1489,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1531,45 +1523,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Röd glada</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 23279-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44630</v>
+        <v>45791</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1581,14 +1577,19 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1616,45 +1617,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23279-2025</t>
+          <t>A 2423-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45791</v>
+        <v>46034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,13 +1667,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>11.8</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1684,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1696,41 +1692,45 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2141,14 +2141,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 44531-2022</t>
+          <t>A 73212-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44840</v>
+        <v>44550</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2160,8 +2160,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2205,7 +2210,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2255,14 +2260,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 73212-2021</t>
+          <t>A 44531-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44550</v>
+        <v>44840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2274,13 +2279,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2374,14 +2374,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8295-2022</t>
+          <t>A 67220-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44610</v>
+        <v>44523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2431,14 +2431,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 67220-2021</t>
+          <t>A 8295-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44523</v>
+        <v>44610</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2488,14 +2488,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11996-2022</t>
+          <t>A 22531-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44635</v>
+        <v>44713</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,8 +2507,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>6.4</v>
+        <v>10.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2545,14 +2550,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22531-2022</t>
+          <t>A 11996-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44713</v>
+        <v>44635</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,13 +2569,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>10.1</v>
+        <v>6.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2607,14 +2607,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52878-2022</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44872</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2664,14 +2664,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2726,14 +2726,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>45044</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2745,8 +2745,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2783,14 +2788,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44462</v>
+        <v>44834</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2802,8 +2807,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2840,14 +2850,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45229</v>
+        <v>44713</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2861,11 +2871,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2902,14 +2912,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2922,7 +2932,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>10.4</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2959,14 +2969,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>44875</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2978,8 +2988,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3016,14 +3031,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>45229</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3035,8 +3050,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3073,14 +3093,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38535-2025</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45884.41943287037</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3093,7 +3113,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3130,14 +3150,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>45235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3175,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3192,14 +3212,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44332</v>
+        <v>44462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3232,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3256,7 +3276,7 @@
         <v>45084</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3306,14 +3326,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3327,11 +3347,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>11.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3368,14 +3388,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>44974.389375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3387,13 +3407,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3430,14 +3445,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,8 +3464,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>10.6</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3487,14 +3507,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44834</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,11 +3528,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3549,14 +3569,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>45233</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3570,11 +3590,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>11.3</v>
+        <v>8.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3611,14 +3631,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>45275</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,8 +3650,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3668,14 +3693,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44316</v>
+        <v>45274</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,8 +3712,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3725,14 +3755,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>45173</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3744,13 +3774,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3787,14 +3812,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45173</v>
+        <v>45275</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3806,8 +3831,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3844,14 +3874,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>44602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3863,8 +3893,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3901,14 +3936,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44974.389375</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3920,8 +3955,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3958,14 +3998,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45233</v>
+        <v>45167</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3977,13 +4017,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>8.4</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4020,14 +4055,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4039,8 +4074,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4077,14 +4117,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>45054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4097,7 +4137,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4134,14 +4174,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 56639-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45235</v>
+        <v>45243.72300925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4159,7 +4199,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4196,14 +4236,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>44540</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4216,7 +4256,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.5</v>
+        <v>6.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4253,14 +4293,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56639-2023</t>
+          <t>A 38535-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45243.72300925926</v>
+        <v>45884.41943287037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4272,13 +4312,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4315,14 +4350,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45274</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4334,13 +4369,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4377,14 +4407,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45050</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4396,13 +4426,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4439,14 +4464,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45044</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4464,7 +4489,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4501,14 +4526,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>44730</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4521,7 +4546,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4558,14 +4583,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45275</v>
+        <v>44602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4583,7 +4608,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4620,14 +4645,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4640,7 +4665,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>10.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4677,14 +4702,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 52878-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44730</v>
+        <v>44872</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4697,7 +4722,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4734,14 +4759,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44540</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4754,7 +4779,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.7</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4791,14 +4816,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4811,7 +4836,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4848,14 +4873,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44713</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4867,13 +4892,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>8.4</v>
+        <v>0.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4910,14 +4930,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45167</v>
+        <v>44316</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4950,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4967,14 +4987,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44602</v>
+        <v>44332</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4986,13 +5006,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5029,14 +5044,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45054</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5048,8 +5063,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5086,14 +5106,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5126,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5143,14 +5163,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5168,7 +5188,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5205,14 +5225,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44602</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5224,13 +5244,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5267,14 +5282,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45275</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5286,13 +5301,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5329,14 +5339,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,13 +5358,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5391,14 +5396,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44875</v>
+        <v>45792</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,7 +5417,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -5453,14 +5458,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5472,8 +5477,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5510,14 +5520,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5527,11 +5537,6 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>NYKVARN</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -5572,14 +5577,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45792</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5591,13 +5596,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5634,14 +5634,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5691,14 +5691,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>10.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,14 +1044,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 11388-2024</t>
+          <t>A 9714-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45372.44967592593</v>
+        <v>44617</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,16 +1064,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1098,45 +1098,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 9714-2022</t>
+          <t>A 23279-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44617</v>
+        <v>45791</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1146,16 +1146,21 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>NYKVARN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,45 +1188,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 57389-2024</t>
+          <t>A 11388-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45629.68615740741</v>
+        <v>45372.44967592593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1234,7 +1239,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1272,41 +1277,41 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 57389-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44630</v>
+        <v>45629.68615740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1319,17 +1324,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1343,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1353,45 +1358,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 8285-2022</t>
+          <t>A 37597-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44610</v>
+        <v>45541.47459490741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1409,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1438,45 +1443,49 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Röd glada</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 37597-2024</t>
+          <t>A 2423-2026</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45541.47459490741</v>
+        <v>46034</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1498,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>11.8</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1501,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1513,59 +1522,59 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Röd glada</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23279-2025</t>
+          <t>A 8285-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45791</v>
+        <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1577,13 +1586,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1621,41 +1625,41 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 2423-2026</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46034</v>
+        <v>44630</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,19 +1672,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>11.8</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1692,45 +1696,41 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2141,14 +2141,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 73212-2021</t>
+          <t>A 44531-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44550</v>
+        <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2160,13 +2160,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2210,7 +2205,7 @@
         <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2260,14 +2255,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 44531-2022</t>
+          <t>A 73212-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44840</v>
+        <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,8 +2274,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2374,14 +2374,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 67220-2021</t>
+          <t>A 8295-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44523</v>
+        <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2431,14 +2431,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 8295-2022</t>
+          <t>A 67220-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44610</v>
+        <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2488,14 +2488,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 22531-2022</t>
+          <t>A 11996-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44713</v>
+        <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,13 +2507,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>10.1</v>
+        <v>6.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2550,14 +2545,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 11996-2022</t>
+          <t>A 22531-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44635</v>
+        <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2569,8 +2564,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>6.4</v>
+        <v>10.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2607,14 +2607,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 52878-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>44872</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2664,14 +2664,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 38535-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45050</v>
+        <v>45884.41943287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2683,13 +2683,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2726,14 +2721,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45044</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2745,13 +2740,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2788,14 +2778,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44834</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2809,11 +2799,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2850,14 +2840,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44713</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2871,11 +2861,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>8.4</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2912,14 +2902,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>45792</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2931,8 +2921,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2969,14 +2964,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44875</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2988,13 +2983,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3031,14 +3021,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45229</v>
+        <v>44462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,13 +3040,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3093,14 +3078,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3098,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3150,14 +3135,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45235</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3169,13 +3154,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>10.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3212,14 +3192,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44462</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3212,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3269,14 +3249,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45084</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3269,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3326,14 +3306,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3345,13 +3325,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>11.3</v>
+        <v>10.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3388,14 +3363,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44974.389375</v>
+        <v>45229</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3407,8 +3382,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3445,14 +3425,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3464,13 +3444,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3507,14 +3482,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3528,11 +3503,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3569,14 +3544,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45233</v>
+        <v>44332</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3588,13 +3563,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>8.4</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3631,14 +3601,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45275</v>
+        <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,13 +3620,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3693,14 +3658,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45274</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3714,11 +3679,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3755,14 +3720,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45173</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3774,8 +3739,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3812,14 +3782,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45275</v>
+        <v>44834</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,11 +3803,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3874,14 +3844,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44602</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3895,11 +3865,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.1</v>
+        <v>11.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3936,14 +3906,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3955,13 +3925,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3998,14 +3963,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45167</v>
+        <v>44316</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4018,7 +3983,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4055,14 +4020,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4076,11 +4041,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4117,14 +4082,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45054</v>
+        <v>45173</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4102,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4174,14 +4139,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56639-2023</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45243.72300925926</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4193,13 +4158,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4236,14 +4196,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44540</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4256,7 +4216,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.7</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4293,14 +4253,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38535-2025</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45884.41943287037</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4313,7 +4273,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4350,14 +4310,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>44974.389375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4370,7 +4330,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4407,14 +4367,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>45233</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4426,8 +4386,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>8.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4464,14 +4429,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>45235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4485,11 +4450,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4526,14 +4491,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44730</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4546,7 +4511,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4583,14 +4548,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 56639-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44602</v>
+        <v>45243.72300925926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4608,7 +4573,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4645,14 +4610,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>45274</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,8 +4629,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>10.6</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4702,14 +4672,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52878-2022</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44872</v>
+        <v>45050</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,8 +4691,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4759,14 +4734,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>45044</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,8 +4753,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4816,14 +4796,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4836,7 +4816,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4873,14 +4853,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>45275</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,8 +4872,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4930,14 +4915,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44316</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4950,7 +4935,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4987,14 +4972,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44332</v>
+        <v>44730</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5007,7 +4992,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5044,14 +5029,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>44540</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,13 +5048,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>6.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5106,14 +5086,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5106,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5163,14 +5143,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>44713</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5184,11 +5164,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>8.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5225,14 +5205,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>45167</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5225,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5282,14 +5262,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>44602</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5301,8 +5281,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5339,14 +5324,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>45054</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5344,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5396,14 +5381,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45792</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5415,13 +5400,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5458,14 +5438,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5463,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5520,14 +5500,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>44602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5539,8 +5519,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5577,14 +5562,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>45275</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5596,8 +5581,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5634,14 +5624,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5653,8 +5643,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5691,14 +5686,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>44875</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5710,8 +5705,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>10.4</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44630.39990740741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,14 +1044,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 9714-2022</t>
+          <t>A 11388-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44617</v>
+        <v>45372.44967592593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,17 +1064,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1098,45 +1098,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 23279-2025</t>
+          <t>A 8285-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45791</v>
+        <v>44610</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1148,13 +1148,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1192,41 +1187,41 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 11388-2024</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45372.44967592593</v>
+        <v>44630</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1239,16 +1234,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1273,45 +1268,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 57389-2024</t>
+          <t>A 37597-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45629.68615740741</v>
+        <v>45541.47459490741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1324,16 +1319,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1358,45 +1353,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Röd glada</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 37597-2024</t>
+          <t>A 23279-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45541.47459490741</v>
+        <v>45791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,8 +1407,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1443,49 +1447,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Röd glada</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 2423-2026</t>
+          <t>A 9714-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46034</v>
+        <v>44617</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1498,19 +1498,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>11.8</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1522,59 +1522,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8285-2022</t>
+          <t>A 57389-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44610</v>
+        <v>45629.68615740741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1590,14 +1586,14 @@
         <v>5</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1611,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1621,45 +1617,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 2423-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44630</v>
+        <v>46034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1672,20 +1668,20 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>11.8</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
@@ -1696,41 +1692,45 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>44638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44403</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1970,14 +1970,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 19608-2022</t>
+          <t>A 21913-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44693.96278935186</v>
+        <v>44322.75940972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2027,14 +2027,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24656-2022</t>
+          <t>A 19608-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44726</v>
+        <v>44693.96278935186</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2084,14 +2084,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 21913-2021</t>
+          <t>A 44531-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44322.75940972222</v>
+        <v>44840</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2141,14 +2141,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 44531-2022</t>
+          <t>A 24656-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44840</v>
+        <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2198,14 +2198,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 43922-2021</t>
+          <t>A 73212-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44434</v>
+        <v>44550</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2217,8 +2217,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2255,14 +2260,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 73212-2021</t>
+          <t>A 43922-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44550</v>
+        <v>44434</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2274,13 +2279,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2374,14 +2374,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8295-2022</t>
+          <t>A 67220-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44610</v>
+        <v>44523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2431,14 +2431,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 67220-2021</t>
+          <t>A 8295-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44523</v>
+        <v>44610</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2488,14 +2488,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11996-2022</t>
+          <t>A 22531-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44635</v>
+        <v>44713</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,8 +2507,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>6.4</v>
+        <v>10.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2545,14 +2550,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22531-2022</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44713</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,13 +2569,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>10.1</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2607,14 +2607,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52878-2022</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44872</v>
+        <v>45050</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2626,8 +2626,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2664,14 +2669,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 38535-2025</t>
+          <t>A 11996-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45884.41943287037</v>
+        <v>44635</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2684,7 +2689,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2721,14 +2726,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>45229</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2740,8 +2745,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2778,14 +2788,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2797,13 +2807,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2840,14 +2845,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>44834</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2861,11 +2866,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2902,14 +2907,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45792</v>
+        <v>45235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2923,11 +2928,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2964,14 +2969,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 52878-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2989,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3021,14 +3026,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44462</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3046,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3078,14 +3083,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3103,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3135,14 +3140,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>44875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3154,8 +3159,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>10.6</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3192,14 +3202,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3211,8 +3221,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3249,14 +3264,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3268,8 +3283,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3306,14 +3326,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3346,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3363,14 +3383,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45229</v>
+        <v>45044</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3388,7 +3408,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3425,14 +3445,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3445,7 +3465,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3482,14 +3502,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>44974.389375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3501,13 +3521,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3544,14 +3559,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44332</v>
+        <v>44713</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3563,8 +3578,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3601,14 +3621,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45084</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3620,8 +3640,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3658,14 +3683,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>45167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3677,13 +3702,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3720,14 +3740,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3741,11 +3761,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3782,14 +3802,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44834</v>
+        <v>44316</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3801,13 +3821,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3844,14 +3859,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>44332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3863,13 +3878,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>11.3</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3906,14 +3916,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3925,8 +3935,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3963,14 +3978,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44316</v>
+        <v>44540</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3983,7 +3998,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9.699999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4020,14 +4035,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4041,11 +4056,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4082,14 +4097,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45173</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4102,7 +4117,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4139,14 +4154,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>45275</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4158,8 +4173,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4196,14 +4216,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4215,8 +4235,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4253,14 +4278,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>44462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4273,7 +4298,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4310,14 +4335,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44974.389375</v>
+        <v>45084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4330,7 +4355,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4367,14 +4392,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 38535-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45233</v>
+        <v>45884.41943287037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4386,13 +4411,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4429,14 +4449,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45235</v>
+        <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4454,7 +4474,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4491,14 +4511,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4510,8 +4530,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>11.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4548,14 +4573,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56639-2023</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45243.72300925926</v>
+        <v>45233</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4573,7 +4598,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4610,14 +4635,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45274</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,13 +4654,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4672,14 +4692,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45050</v>
+        <v>45792</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4697,7 +4717,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4734,14 +4754,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 23284-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45044</v>
+        <v>45791.57525462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4755,11 +4775,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4796,14 +4816,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>45275</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4815,8 +4835,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4853,14 +4878,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45275</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4872,13 +4897,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>10.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4915,14 +4935,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4955,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4972,14 +4992,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44730</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +5012,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5029,14 +5049,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44540</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5069,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5086,14 +5106,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>45274</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5105,8 +5125,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5143,14 +5168,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44713</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5162,13 +5187,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>8.4</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5205,14 +5225,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45167</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5225,7 +5245,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>10.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5262,14 +5282,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44602</v>
+        <v>45173</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5281,13 +5301,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5331,7 +5346,7 @@
         <v>45054</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5381,14 +5396,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 56639-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>45243.72300925926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5400,8 +5415,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5438,14 +5458,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5457,13 +5477,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5500,14 +5515,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44602</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,13 +5534,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5562,14 +5572,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45275</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5581,13 +5591,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5624,14 +5629,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>44730</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5643,13 +5648,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5686,14 +5686,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44875</v>
+        <v>44602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,11 +5707,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z82"/>
+  <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45275</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>46041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44862</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,14 +864,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 11348-2022</t>
+          <t>A 2892-2026</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44630.39990740741</v>
+        <v>46037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,17 +884,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -918,140 +918,140 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2892-2026 artfynd.xlsx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2892-2026 karta.png", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2892-2026 FSC-klagomål.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2892-2026 FSC-klagomål mail.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2892-2026 tillsynsbegäran.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2892-2026 tillsynsbegäran mail.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 2892-2026 prioriterade fågelarter.docx", "A 2892-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 11348-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44630.39990740741</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NYKVARN</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Gulsparv
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11348-2022 artfynd.xlsx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11348-2022 karta.png", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11348-2022 FSC-klagomål.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11348-2022 FSC-klagomål mail.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11348-2022 tillsynsbegäran.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11348-2022 tillsynsbegäran mail.docx", "A 11348-2022")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 11348-2022 prioriterade fågelarter.docx", "A 11348-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 2892-2026</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46037</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NYKVARN</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2892-2026 artfynd.xlsx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2892-2026 karta.png", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2892-2026 FSC-klagomål.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2892-2026 FSC-klagomål mail.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2892-2026 tillsynsbegäran.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2892-2026 tillsynsbegäran mail.docx", "A 2892-2026")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 2892-2026 prioriterade fågelarter.docx", "A 2892-2026")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 11388-2024</t>
+          <t>A 11393-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45372.44967592593</v>
+        <v>44630</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,16 +1064,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1098,45 +1098,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 8285-2022</t>
+          <t>A 11388-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44610</v>
+        <v>45372.44967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1149,17 +1149,17 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1183,45 +1183,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11388-2024 artfynd.xlsx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11388-2024 karta.png", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11388-2024 FSC-klagomål.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11388-2024 FSC-klagomål mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11388-2024 tillsynsbegäran.docx", "A 11388-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11388-2024 tillsynsbegäran mail.docx", "A 11388-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 11393-2022</t>
+          <t>A 9714-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44630</v>
+        <v>44617</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1268,45 +1268,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 11393-2022 artfynd.xlsx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 11393-2022 karta.png", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 11393-2022 FSC-klagomål.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 11393-2022 FSC-klagomål mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 11393-2022 tillsynsbegäran.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 11393-2022 tillsynsbegäran mail.docx", "A 11393-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 37597-2024</t>
+          <t>A 57389-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45541.47459490741</v>
+        <v>45629.68615740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1319,17 +1319,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1353,49 +1353,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Röd glada</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 23279-2025</t>
+          <t>A 2423-2026</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45791</v>
+        <v>46034</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1407,13 +1403,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>11.8</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1425,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1437,55 +1428,59 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 9714-2022</t>
+          <t>A 8285-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44617</v>
+        <v>44610</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1498,13 +1493,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1532,45 +1527,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 9714-2022 artfynd.xlsx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 8285-2022 artfynd.xlsx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 9714-2022 karta.png", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 8285-2022 karta.png", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 9714-2022 FSC-klagomål.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 8285-2022 FSC-klagomål.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 9714-2022 FSC-klagomål mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 8285-2022 FSC-klagomål mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 9714-2022 tillsynsbegäran.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 8285-2022 tillsynsbegäran.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 9714-2022 tillsynsbegäran mail.docx", "A 9714-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 8285-2022 tillsynsbegäran mail.docx", "A 8285-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 57389-2024</t>
+          <t>A 37597-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45629.68615740741</v>
+        <v>45541.47459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1583,16 +1578,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1607,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1617,45 +1612,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Röd glada</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 57389-2024 artfynd.xlsx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 37597-2024 artfynd.xlsx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 57389-2024 karta.png", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 37597-2024 karta.png", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 57389-2024 FSC-klagomål.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 37597-2024 FSC-klagomål.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 57389-2024 FSC-klagomål mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 37597-2024 FSC-klagomål mail.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 57389-2024 tillsynsbegäran.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 37597-2024 tillsynsbegäran.docx", "A 37597-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 57389-2024 tillsynsbegäran mail.docx", "A 57389-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 37597-2024 tillsynsbegäran mail.docx", "A 37597-2024")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/fåglar/A 37597-2024 prioriterade fågelarter.docx", "A 37597-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 2423-2026</t>
+          <t>A 23279-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46034</v>
+        <v>45791</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,8 +1666,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>11.8</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1680,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1692,59 +1696,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 2423-2026 artfynd.xlsx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/artfynd/A 23279-2025 artfynd.xlsx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 2423-2026 karta.png", "A 2423-2026")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/knärot/A 2423-2026 karta knärot.png", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/kartor/A 23279-2025 karta.png", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 2423-2026 FSC-klagomål.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomål/A 23279-2025 FSC-klagomål.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 2423-2026 FSC-klagomål mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/klagomålsmail/A 23279-2025 FSC-klagomål mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 2423-2026 tillsynsbegäran.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsyn/A 23279-2025 tillsynsbegäran.docx", "A 23279-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 2423-2026 tillsynsbegäran mail.docx", "A 2423-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0140/tillsynsmail/A 23279-2025 tillsynsbegäran mail.docx", "A 23279-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 12578-2022</t>
+          <t>A 37967-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44638</v>
+        <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37967-2021</t>
+          <t>A 12578-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44403</v>
+        <v>44638</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>44558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44279.91693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1970,14 +1970,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21913-2021</t>
+          <t>A 19608-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44322.75940972222</v>
+        <v>44693.96278935186</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2027,14 +2027,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 19608-2022</t>
+          <t>A 24656-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44693.96278935186</v>
+        <v>44726</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2084,14 +2084,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 44531-2022</t>
+          <t>A 21913-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44840</v>
+        <v>44322.75940972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2141,14 +2141,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24656-2022</t>
+          <t>A 44531-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44726</v>
+        <v>44840</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2198,14 +2198,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 73212-2021</t>
+          <t>A 43922-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44550</v>
+        <v>44434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2217,13 +2217,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2260,14 +2255,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 43922-2021</t>
+          <t>A 73212-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44434</v>
+        <v>44550</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,8 +2274,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>44725.78381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2374,14 +2374,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 67220-2021</t>
+          <t>A 8295-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44523</v>
+        <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2431,14 +2431,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 8295-2022</t>
+          <t>A 67220-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44610</v>
+        <v>44523</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2488,14 +2488,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 22531-2022</t>
+          <t>A 11996-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44713</v>
+        <v>44635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,13 +2507,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>10.1</v>
+        <v>6.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2550,14 +2545,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 50031-2023</t>
+          <t>A 22531-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45215.48474537037</v>
+        <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2569,8 +2564,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>10.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2607,14 +2607,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 19487-2023</t>
+          <t>A 43230-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45050</v>
+        <v>44834</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2628,11 +2628,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2669,14 +2669,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 11996-2022</t>
+          <t>A 18848-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44635</v>
+        <v>45426.68278935185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2726,14 +2726,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 53307-2023</t>
+          <t>A 52963-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45229</v>
+        <v>44875</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2747,11 +2747,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2788,14 +2788,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 53337-2023</t>
+          <t>A 50031-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45229.63960648148</v>
+        <v>45215.48474537037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2845,14 +2845,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 43230-2022</t>
+          <t>A 19487-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44834</v>
+        <v>45050</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2866,11 +2866,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2907,14 +2907,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 54670-2023</t>
+          <t>A 40168-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45235</v>
+        <v>45169.38591435185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2928,11 +2928,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2969,14 +2969,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52878-2022</t>
+          <t>A 6857-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44872</v>
+        <v>44602.69712962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2988,8 +2988,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3026,14 +3031,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 24283-2022</t>
+          <t>A 8096-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44725.79453703704</v>
+        <v>44974.389375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3046,7 +3051,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3083,14 +3088,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 18848-2024</t>
+          <t>A 39539-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45426.68278935185</v>
+        <v>45167</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3103,7 +3108,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3140,14 +3145,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 52963-2022</t>
+          <t>A 71540-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44875</v>
+        <v>44540</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3159,13 +3164,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3202,14 +3202,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 51813-2024</t>
+          <t>A 60324-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45607.48734953703</v>
+        <v>44910.59086805556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,11 +3223,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3264,14 +3264,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32555-2023</t>
+          <t>A 38535-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45121.43032407408</v>
+        <v>45884.41943287037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,13 +3283,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3326,14 +3321,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 2172-2024</t>
+          <t>A 26755-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45309.63112268518</v>
+        <v>45810.55623842592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3341,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3383,14 +3378,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 18793-2023</t>
+          <t>A 26763-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45044</v>
+        <v>45810.56418981482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3402,13 +3397,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3445,14 +3435,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7926-2023</t>
+          <t>A 28607-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44973.6502662037</v>
+        <v>45819.60226851852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3465,7 +3455,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3502,14 +3492,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8096-2023</t>
+          <t>A 28598-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44974.389375</v>
+        <v>45819.59659722223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3522,7 +3512,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>10.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3559,14 +3549,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22529-2022</t>
+          <t>A 53307-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44713</v>
+        <v>45229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3580,11 +3570,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8.4</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3621,14 +3611,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 40168-2023</t>
+          <t>A 53337-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45169.38591435185</v>
+        <v>45229.63960648148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3640,13 +3630,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3683,14 +3668,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 39539-2023</t>
+          <t>A 54670-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45167</v>
+        <v>45235</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3702,8 +3687,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3740,14 +3730,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 6857-2022</t>
+          <t>A 51813-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44602.69712962963</v>
+        <v>45607.48734953703</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3761,11 +3751,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3802,14 +3792,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20711-2021</t>
+          <t>A 18793-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44316</v>
+        <v>45044</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,8 +3811,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>9.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3859,14 +3854,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 23152-2021</t>
+          <t>A 22529-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44332</v>
+        <v>44713</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,8 +3873,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3916,14 +3916,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 44969-2022</t>
+          <t>A 36986-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44841.58752314815</v>
+        <v>45874.65056712963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,13 +3935,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>10.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3978,14 +3973,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 71540-2021</t>
+          <t>A 51787-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44540</v>
+        <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3998,7 +3993,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4035,14 +4030,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60324-2022</t>
+          <t>A 25754-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44910.59086805556</v>
+        <v>45084</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4054,13 +4049,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4097,14 +4087,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 11430-2022</t>
+          <t>A 44947-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44630.5968287037</v>
+        <v>44438.69939814815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,8 +4106,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>11.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4154,14 +4149,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 63592-2023</t>
+          <t>A 54583-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45275</v>
+        <v>45233</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4179,7 +4174,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4216,14 +4211,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18222-2025</t>
+          <t>A 63586-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45761.7321875</v>
+        <v>45275</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4237,11 +4232,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4278,14 +4273,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 51787-2021</t>
+          <t>A 32555-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44462</v>
+        <v>45121.43032407408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4297,8 +4292,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4335,14 +4335,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25754-2023</t>
+          <t>A 63592-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45084</v>
+        <v>45275</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4354,8 +4354,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4392,14 +4397,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38535-2025</t>
+          <t>A 59342-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45884.41943287037</v>
+        <v>45989.38784722222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4412,7 +4417,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4449,14 +4454,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6876-2022</t>
+          <t>A 59348-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44602</v>
+        <v>45989.40099537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4468,13 +4473,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44947-2021</t>
+          <t>A 6876-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44438.69939814815</v>
+        <v>44602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4532,11 +4532,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>11.3</v>
+        <v>5.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4573,14 +4573,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 54583-2023</t>
+          <t>A 17328-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45233</v>
+        <v>45756.64081018518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4592,13 +4592,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>8.4</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4635,14 +4630,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2177-2024</t>
+          <t>A 63400-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45309.64600694444</v>
+        <v>45274</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4654,8 +4649,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4692,14 +4692,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 23655-2025</t>
+          <t>A 41681-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45792</v>
+        <v>45173</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4711,13 +4711,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4754,14 +4749,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23284-2025</t>
+          <t>A 19903-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45791.57525462963</v>
+        <v>45054</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4773,13 +4768,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>7.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4816,14 +4806,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 63586-2023</t>
+          <t>A 56639-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45275</v>
+        <v>45243.72300925926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4831,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4878,14 +4868,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 36986-2025</t>
+          <t>A 50020-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45874.65056712963</v>
+        <v>45215.46996527778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4888,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>10.6</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4935,14 +4925,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17328-2025</t>
+          <t>A 25278-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45756.64081018518</v>
+        <v>44730</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4945,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4992,14 +4982,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26755-2025</t>
+          <t>A 11045-2026</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45810.55623842592</v>
+        <v>46079.58353009259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5002,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5049,14 +5039,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26763-2025</t>
+          <t>A 6854-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45810.56418981482</v>
+        <v>44602</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,8 +5058,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5106,14 +5101,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 63400-2023</t>
+          <t>A 52878-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45274</v>
+        <v>44872</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,13 +5120,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5168,14 +5158,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28607-2025</t>
+          <t>A 24283-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45819.60226851852</v>
+        <v>44725.79453703704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5188,7 +5178,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5225,14 +5215,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28598-2025</t>
+          <t>A 2172-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45819.59659722223</v>
+        <v>45309.63112268518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5235,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5282,14 +5272,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41681-2023</t>
+          <t>A 7926-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45173</v>
+        <v>44973.6502662037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5292,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5339,14 +5329,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 19903-2023</t>
+          <t>A 20711-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45054</v>
+        <v>44316</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5349,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5396,14 +5386,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56639-2023</t>
+          <t>A 23152-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45243.72300925926</v>
+        <v>44332</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5415,13 +5405,8 @@
           <t>NYKVARN</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5458,14 +5443,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50020-2023</t>
+          <t>A 44969-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45215.46996527778</v>
+        <v>44841.58752314815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5477,8 +5462,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5515,14 +5505,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 59342-2025</t>
+          <t>A 11430-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45989.38784722222</v>
+        <v>44630.5968287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5535,7 +5525,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5572,14 +5562,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59348-2025</t>
+          <t>A 18222-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45989.40099537037</v>
+        <v>45761.7321875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5591,8 +5581,13 @@
           <t>NYKVARN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5629,14 +5624,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25278-2022</t>
+          <t>A 2177-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44730</v>
+        <v>45309.64600694444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5649,7 +5644,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5683,17 +5678,17 @@
       </c>
       <c r="R81" s="2" t="inlineStr"/>
     </row>
-    <row r="82">
+    <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6854-2022</t>
+          <t>A 23655-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44602</v>
+        <v>45792</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,11 +5702,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5744,6 +5739,68 @@
         <v>0</v>
       </c>
       <c r="R82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>A 23284-2025</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>45791.57525462963</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NYKVARN</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
